--- a/data_fisheries_nutrients/Nutrients_TBCA.xlsx
+++ b/data_fisheries_nutrients/Nutrients_TBCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Review_within_the_group\food_security\data_fisheries_nutrients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0ECC33-BA09-4C44-AFEF-A08E46B35CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28C0DFD-A133-4718-BC4F-37A660EBEA4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>19.3</v>
@@ -28295,7 +28295,7 @@
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
